--- a/fuentes/contenidos/grado09/guion06/Escaleta_CS_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/Escaleta_CS_09_06_CO.xlsx
@@ -1306,7 +1306,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado09/guion06/Escaleta_CS_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/Escaleta_CS_09_06_CO.xlsx
@@ -1306,7 +1306,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
